--- a/usuarios-ronda1.xlsx
+++ b/usuarios-ronda1.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevOps\Devs\DigitalOcean\chips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E50F794-7A37-4BAB-92E0-93689CE248C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2DDFF2-06A1-4142-9BF5-4C37CBBBBEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="196">
   <si>
     <t>Usuario</t>
   </si>
@@ -31,6 +44,9 @@
     <t>Créditos</t>
   </si>
   <si>
+    <t>Update</t>
+  </si>
+  <si>
     <t>Hulk256</t>
   </si>
   <si>
@@ -61,12 +77,6 @@
     <t>lsik13</t>
   </si>
   <si>
-    <t>hulk026</t>
-  </si>
-  <si>
-    <t>lhuk8</t>
-  </si>
-  <si>
     <t>Martian671</t>
   </si>
   <si>
@@ -133,12 +143,6 @@
     <t>ascr16</t>
   </si>
   <si>
-    <t>superman945</t>
-  </si>
-  <si>
-    <t>psue18</t>
-  </si>
-  <si>
     <t>Starbrand465</t>
   </si>
   <si>
@@ -587,12 +591,6 @@
   </si>
   <si>
     <t>bcyo18</t>
-  </si>
-  <si>
-    <t>wolverine017</t>
-  </si>
-  <si>
-    <t>lwov8</t>
   </si>
   <si>
     <t>Zatanna977</t>
@@ -629,7 +627,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,6 +642,21 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -660,14 +676,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -968,17 +988,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,1105 +1011,1384 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>111</v>
-      </c>
-      <c r="B56" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>123</v>
-      </c>
-      <c r="B62" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" t="s">
-        <v>132</v>
-      </c>
-      <c r="C66">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>139</v>
-      </c>
-      <c r="B70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>141</v>
-      </c>
-      <c r="B71" t="s">
-        <v>142</v>
-      </c>
-      <c r="C71">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" t="s">
-        <v>144</v>
-      </c>
-      <c r="C72">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>145</v>
-      </c>
-      <c r="B73" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>147</v>
-      </c>
-      <c r="B74" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>151</v>
-      </c>
-      <c r="B76" t="s">
-        <v>152</v>
-      </c>
-      <c r="C76">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>153</v>
-      </c>
-      <c r="B77" t="s">
-        <v>154</v>
-      </c>
-      <c r="C77">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>155</v>
-      </c>
-      <c r="B78" t="s">
-        <v>156</v>
-      </c>
-      <c r="C78">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79" t="s">
-        <v>158</v>
-      </c>
-      <c r="C79">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>159</v>
-      </c>
-      <c r="B80" t="s">
-        <v>160</v>
-      </c>
-      <c r="C80">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81" t="s">
-        <v>162</v>
-      </c>
       <c r="C81">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>163</v>
       </c>
       <c r="B82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>164</v>
       </c>
-      <c r="C82">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
         <v>165</v>
       </c>
-      <c r="B83" t="s">
-        <v>18</v>
-      </c>
       <c r="C83">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>166</v>
       </c>
       <c r="B84" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="C84">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C85">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C86">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C87">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C88">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C89">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C90">
         <v>10</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B91" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C91">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C92">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B93" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C93">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C94">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B95" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C95">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C96">
         <v>10</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C97">
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C98">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>195</v>
-      </c>
-      <c r="B99" t="s">
-        <v>196</v>
-      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>197</v>
-      </c>
-      <c r="B100" t="s">
-        <v>198</v>
-      </c>
-      <c r="C100">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>199</v>
-      </c>
-      <c r="B101" t="s">
-        <v>200</v>
-      </c>
-      <c r="C101">
-        <v>10</v>
+        <f>SUM(C2:C98)</f>
+        <v>618</v>
+      </c>
+      <c r="D99">
+        <f>SUM(D2:D98)</f>
+        <v>371</v>
+      </c>
+      <c r="E99">
+        <f>C99-D99</f>
+        <v>247</v>
+      </c>
+      <c r="F99" s="3">
+        <f>E99*5</f>
+        <v>1235</v>
       </c>
     </row>
   </sheetData>
